--- a/Semestre 2/Administración y Valoración Financiera/Trabajo Final/Balance y PyG ALUICA.xlsx
+++ b/Semestre 2/Administración y Valoración Financiera/Trabajo Final/Balance y PyG ALUICA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGOJ\OneDrive\Desktop\NICO\MAF\Semestre 2\Administración y Valoración Financiera\Trabajo Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FADC9-9DBE-4B26-9A4B-5A677A13DE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B45E6B-13A0-4F38-A7D0-8CA99DC61B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="902" activeTab="3" xr2:uid="{3CF2CE5B-43D7-4358-B9B9-2D0E19DA167E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="902" activeTab="4" xr2:uid="{3CF2CE5B-43D7-4358-B9B9-2D0E19DA167E}"/>
   </bookViews>
   <sheets>
     <sheet name="ESF 2021-2020" sheetId="2" r:id="rId1"/>
@@ -2695,7 +2695,7 @@
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="49" x14ac:knownFonts="1">
     <font>
@@ -3944,6 +3944,11 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3974,11 +3979,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -6673,84 +6673,84 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="143" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="144" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="145" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="143" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="144" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="145" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="67" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="68" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="69" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="10.6640625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="294" t="s">
+    <row r="3" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294"/>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="294" t="s">
+    <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="294" t="s">
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="299" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-    </row>
-    <row r="6" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="294" t="s">
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+    </row>
+    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="299" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="294"/>
-      <c r="D6" s="294"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-    </row>
-    <row r="7" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="295" t="s">
+      <c r="C6" s="299"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+    </row>
+    <row r="7" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B7" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-    </row>
-    <row r="8" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+    </row>
+    <row r="8" spans="2:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B8" s="59"/>
       <c r="C8" s="59" t="s">
         <v>5</v>
@@ -6774,7 +6774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="63" t="s">
         <v>41</v>
       </c>
@@ -6783,7 +6783,7 @@
       <c r="E9" s="65"/>
       <c r="F9" s="66"/>
     </row>
-    <row r="10" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
         <v>42</v>
       </c>
@@ -6792,7 +6792,7 @@
       <c r="E10" s="65"/>
       <c r="F10" s="66"/>
     </row>
-    <row r="11" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="70" t="s">
         <v>43</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>0.72644842783886232</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
         <v>44</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>0.44816177366262799</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="77" t="s">
         <v>45</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>-0.83017477054529942</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="70" t="s">
         <v>46</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>0.20926837145564603</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="70" t="s">
         <v>47</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>7.2251763691519866E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="70" t="s">
         <v>48</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>-9.3512666701362712E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="63" t="s">
         <v>49</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>9.5905232735463253E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="70" t="s">
         <v>14</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="H18" s="75"/>
       <c r="I18" s="86"/>
     </row>
-    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="63" t="s">
         <v>50</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="H19" s="75"/>
       <c r="I19" s="86"/>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
         <v>51</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>-4.2133230357201623E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="70" t="s">
         <v>52</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="70" t="s">
         <v>53</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="70" t="s">
         <v>48</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>-0.5194044982949606</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="63" t="s">
         <v>55</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>-5.8916499884623996E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="63" t="s">
         <v>56</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>3.3145324536575593E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="70" t="s">
         <v>14</v>
       </c>
@@ -7209,7 +7209,7 @@
       <c r="H26" s="75"/>
       <c r="I26" s="86"/>
     </row>
-    <row r="27" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="63" t="s">
         <v>57</v>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="H27" s="75"/>
       <c r="I27" s="86"/>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="63" t="s">
         <v>58</v>
       </c>
@@ -7233,7 +7233,7 @@
       <c r="H28" s="75"/>
       <c r="I28" s="86"/>
     </row>
-    <row r="29" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
         <v>59</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>-4.9616403279874155E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="70" t="s">
         <v>60</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>-0.15935695388840898</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="94" t="s">
         <v>61</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>-7.6077892025861571E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="70" t="s">
         <v>62</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>0.46335904010779783</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="70" t="s">
         <v>63</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>4.9863501060229076E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="63" t="s">
         <v>64</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>-7.0422328018355684E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="70" t="s">
         <v>14</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="H35" s="75"/>
       <c r="I35" s="86"/>
     </row>
-    <row r="36" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="63" t="s">
         <v>65</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="H36" s="75"/>
       <c r="I36" s="86"/>
     </row>
-    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="70" t="s">
         <v>60</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>-0.37797056845794108</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="70" t="s">
         <v>66</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>1.3508248896490054</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="70" t="s">
         <v>67</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>0.22193815451714216</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="70" t="s">
         <v>63</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>-0.47406033359085098</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="63" t="s">
         <v>68</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>-8.1360013682179821E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="63" t="s">
         <v>69</v>
       </c>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="70" t="s">
         <v>14</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="H43" s="75"/>
       <c r="I43" s="86"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="63" t="s">
         <v>70</v>
       </c>
@@ -7634,7 +7634,7 @@
       <c r="H44" s="75"/>
       <c r="I44" s="86"/>
     </row>
-    <row r="45" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="70" t="s">
         <v>71</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="70" t="s">
         <v>72</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="70" t="s">
         <v>73</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>-0.2618279896059057</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="70" t="s">
         <v>74</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="70" t="s">
         <v>75</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" s="70" t="s">
         <v>76</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>-5.3304041362916275</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" s="63" t="s">
         <v>77</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>0.2939960251587066</v>
       </c>
     </row>
-    <row r="52" spans="1:14" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="63" t="s">
         <v>78</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>3.3145324568405687E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B53" s="51"/>
       <c r="C53" s="101"/>
       <c r="D53" s="102">
@@ -7877,63 +7877,63 @@
       <c r="E53" s="103"/>
       <c r="F53" s="104"/>
     </row>
-    <row r="54" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B54" s="296" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="301" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="296"/>
-      <c r="D54" s="296"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
       <c r="E54" s="105"/>
       <c r="F54" s="106"/>
     </row>
-    <row r="55" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" s="107"/>
       <c r="C55" s="108"/>
       <c r="D55" s="109"/>
       <c r="E55" s="110"/>
       <c r="F55" s="111"/>
     </row>
-    <row r="56" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" s="112"/>
       <c r="C56" s="113"/>
       <c r="D56" s="114"/>
       <c r="E56" s="115"/>
       <c r="F56" s="116"/>
     </row>
-    <row r="57" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="117"/>
       <c r="C57" s="118"/>
       <c r="D57" s="119"/>
       <c r="E57" s="120"/>
       <c r="F57" s="121"/>
     </row>
-    <row r="58" spans="1:14" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="122"/>
       <c r="C58" s="123"/>
-      <c r="D58" s="292"/>
-      <c r="E58" s="292"/>
-      <c r="F58" s="292"/>
-      <c r="G58" s="292"/>
-      <c r="H58" s="292"/>
-      <c r="I58" s="292"/>
-    </row>
-    <row r="59" spans="1:14" s="47" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="297"/>
+      <c r="E58" s="297"/>
+      <c r="F58" s="297"/>
+      <c r="G58" s="297"/>
+      <c r="H58" s="297"/>
+      <c r="I58" s="297"/>
+    </row>
+    <row r="59" spans="1:14" s="47" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="125" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="126"/>
-      <c r="D59" s="293" t="s">
+      <c r="D59" s="298" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="293"/>
-      <c r="F59" s="293"/>
-      <c r="G59" s="293" t="s">
+      <c r="E59" s="298"/>
+      <c r="F59" s="298"/>
+      <c r="G59" s="298" t="s">
         <v>80</v>
       </c>
-      <c r="H59" s="293"/>
-      <c r="I59" s="293"/>
-    </row>
-    <row r="60" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="298"/>
+      <c r="I59" s="298"/>
+    </row>
+    <row r="60" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="50"/>
       <c r="C60" s="127"/>
       <c r="D60" s="128"/>
@@ -7945,26 +7945,26 @@
       <c r="H60" s="131"/>
       <c r="I60" s="132"/>
     </row>
-    <row r="61" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="50"/>
       <c r="C61" s="127"/>
       <c r="D61" s="128"/>
       <c r="E61" s="50"/>
       <c r="F61" s="133"/>
     </row>
-    <row r="62" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C62" s="108"/>
       <c r="D62" s="134"/>
       <c r="E62" s="135"/>
       <c r="F62" s="136"/>
     </row>
-    <row r="63" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C63" s="113"/>
       <c r="D63" s="137"/>
       <c r="E63" s="138"/>
       <c r="F63" s="139"/>
     </row>
-    <row r="64" spans="1:14" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="118"/>
@@ -8008,98 +8008,98 @@
   <dimension ref="B1:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A20" zoomScale="88" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="294" t="s">
+    <row r="3" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294"/>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-    </row>
-    <row r="4" spans="2:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="294" t="s">
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+    </row>
+    <row r="4" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-    </row>
-    <row r="5" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="294" t="s">
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+    </row>
+    <row r="5" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-      <c r="J5" s="294"/>
-    </row>
-    <row r="6" spans="2:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="294" t="str">
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+    </row>
+    <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="299" t="str">
         <f>+'[19]ESF '!B6:I6</f>
         <v>A 31 de Diciembre 2021 - 2020</v>
       </c>
-      <c r="C6" s="294"/>
-      <c r="D6" s="294"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-      <c r="J6" s="294"/>
-    </row>
-    <row r="7" spans="2:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="295" t="s">
+      <c r="C6" s="299"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+    </row>
+    <row r="7" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B7" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="295"/>
-    </row>
-    <row r="8" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>0.76020978777722403</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>3.0973141536862148E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
@@ -8231,7 +8231,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>0.14695515856604779</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>0.38027686966996499</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>17</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>0.16240004072516023</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>18</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>-0.43230171829121333</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>19</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>-0.91646011165956009</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="27"/>
@@ -8397,7 +8397,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="2:10" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" s="33" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
         <v>20</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>6.5914567164099331</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="21"/>
       <c r="D21" s="27"/>
@@ -8437,7 +8437,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="2:10" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="34" t="s">
         <v>21</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>0.16328733541303442</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="27"/>
@@ -8479,7 +8479,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="2:10" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" s="33" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>-4.9485151381393173</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>14</v>
       </c>
@@ -8521,7 +8521,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
-    <row r="26" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
@@ -8534,7 +8534,7 @@
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
     </row>
-    <row r="27" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>25</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
         <v>26</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="29"/>
@@ -8631,7 +8631,7 @@
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
     </row>
-    <row r="31" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>27</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>-5.3304041362916275</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="29"/>
@@ -8671,69 +8671,69 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="296" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="301" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="296"/>
-      <c r="D33" s="296"/>
-    </row>
-    <row r="34" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C33" s="301"/>
+      <c r="D33" s="301"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="44"/>
     </row>
-    <row r="35" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
     </row>
-    <row r="36" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
     </row>
-    <row r="37" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
     </row>
-    <row r="38" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
     </row>
-    <row r="39" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
     </row>
-    <row r="40" spans="2:10" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="45"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="297"/>
-      <c r="G40" s="297"/>
-      <c r="H40" s="297"/>
-      <c r="I40" s="297"/>
-      <c r="J40" s="297"/>
+      <c r="D40" s="302"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="49"/>
-      <c r="D41" s="298" t="s">
+      <c r="D41" s="303" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="298"/>
-      <c r="F41" s="298"/>
-      <c r="G41" s="298"/>
-      <c r="H41" s="298" t="s">
+      <c r="E41" s="303"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="303" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="298"/>
-      <c r="J41" s="298"/>
-    </row>
-    <row r="42" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="303"/>
+      <c r="J41" s="303"/>
+    </row>
+    <row r="42" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="51"/>
       <c r="C42" s="52"/>
       <c r="H42" s="53" t="s">
@@ -8812,25 +8812,25 @@
   <dimension ref="B2:S46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="180" t="s">
         <v>97</v>
       </c>
@@ -8853,7 +8853,7 @@
       <c r="R2" s="180"/>
       <c r="S2" s="180"/>
     </row>
-    <row r="3" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="152" t="s">
         <v>4</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
@@ -8943,7 +8943,7 @@
       <c r="R4" s="75"/>
       <c r="S4" s="76"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="70" t="s">
         <v>12</v>
       </c>
@@ -8986,7 +8986,7 @@
       <c r="R5" s="75"/>
       <c r="S5" s="76"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="63" t="s">
         <v>13</v>
       </c>
@@ -9031,7 +9031,7 @@
       <c r="R6" s="75"/>
       <c r="S6" s="76"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="70" t="s">
         <v>16</v>
       </c>
@@ -9076,7 +9076,7 @@
       <c r="R7" s="75"/>
       <c r="S7" s="76"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="70" t="s">
         <v>17</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="R8" s="183"/>
       <c r="S8" s="183"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="63" t="s">
         <v>86</v>
       </c>
@@ -9169,7 +9169,7 @@
       <c r="R9" s="75"/>
       <c r="S9" s="76"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="70" t="s">
         <v>89</v>
       </c>
@@ -9210,7 +9210,7 @@
       <c r="R10" s="75"/>
       <c r="S10" s="76"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="63" t="s">
         <v>88</v>
       </c>
@@ -9257,7 +9257,7 @@
       <c r="R11" s="75"/>
       <c r="S11" s="76"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="70" t="s">
         <v>18</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="R12" s="75"/>
       <c r="S12" s="76"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="70" t="s">
         <v>19</v>
       </c>
@@ -9343,7 +9343,7 @@
       <c r="R13" s="183"/>
       <c r="S13" s="183"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="70" t="s">
         <v>15</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="R14" s="188"/>
       <c r="S14" s="188"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="70" t="s">
         <v>90</v>
       </c>
@@ -9423,7 +9423,7 @@
       <c r="R15" s="75"/>
       <c r="S15" s="76"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="70" t="s">
         <v>91</v>
       </c>
@@ -9458,7 +9458,7 @@
       <c r="R16" s="183"/>
       <c r="S16" s="183"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="185" t="s">
         <v>22</v>
       </c>
@@ -9503,7 +9503,7 @@
       <c r="R17" s="75"/>
       <c r="S17" s="76"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
       <c r="D18" s="157"/>
@@ -9530,7 +9530,7 @@
       <c r="R18" s="183"/>
       <c r="S18" s="183"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="186" t="s">
         <v>23</v>
       </c>
@@ -9559,7 +9559,7 @@
       <c r="R19" s="188"/>
       <c r="S19" s="188"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="70" t="s">
         <v>24</v>
       </c>
@@ -9602,7 +9602,7 @@
       <c r="R20" s="191"/>
       <c r="S20" s="191"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="70" t="s">
         <v>25</v>
       </c>
@@ -9643,7 +9643,7 @@
       <c r="R21" s="75"/>
       <c r="S21" s="76"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="185" t="s">
         <v>27</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="R22" s="75"/>
       <c r="S22" s="76"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L23" s="181" t="s">
         <v>95</v>
       </c>
@@ -9694,7 +9694,7 @@
       <c r="R23" s="75"/>
       <c r="S23" s="76"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L24" s="181" t="s">
         <v>52</v>
       </c>
@@ -9712,7 +9712,7 @@
       <c r="R24" s="75"/>
       <c r="S24" s="76"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L25" s="181" t="s">
         <v>48</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="R25" s="75"/>
       <c r="S25" s="76"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L26" s="187" t="s">
         <v>107</v>
       </c>
@@ -9748,7 +9748,7 @@
       <c r="R26" s="188"/>
       <c r="S26" s="188"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L27" s="181" t="s">
         <v>66</v>
       </c>
@@ -9766,7 +9766,7 @@
       <c r="R27" s="75"/>
       <c r="S27" s="76"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L28" s="181" t="s">
         <v>63</v>
       </c>
@@ -9784,7 +9784,7 @@
       <c r="R28" s="75"/>
       <c r="S28" s="76"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L29" s="187" t="s">
         <v>106</v>
       </c>
@@ -9802,7 +9802,7 @@
       <c r="R29" s="188"/>
       <c r="S29" s="188"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L30" s="190" t="s">
         <v>105</v>
       </c>
@@ -9820,7 +9820,7 @@
       <c r="R30" s="191"/>
       <c r="S30" s="191"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L31" s="195" t="s">
         <v>109</v>
       </c>
@@ -9838,7 +9838,7 @@
       <c r="R31" s="195"/>
       <c r="S31" s="195"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L32" s="181" t="s">
         <v>60</v>
       </c>
@@ -9856,7 +9856,7 @@
       <c r="R32" s="75"/>
       <c r="S32" s="76"/>
     </row>
-    <row r="33" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L33" s="197" t="s">
         <v>110</v>
       </c>
@@ -9874,7 +9874,7 @@
       <c r="R33" s="183"/>
       <c r="S33" s="183"/>
     </row>
-    <row r="34" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L34" s="181" t="s">
         <v>60</v>
       </c>
@@ -9892,7 +9892,7 @@
       <c r="R34" s="75"/>
       <c r="S34" s="76"/>
     </row>
-    <row r="35" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L35" s="197" t="s">
         <v>111</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="R35" s="183"/>
       <c r="S35" s="183"/>
     </row>
-    <row r="36" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L36" s="187" t="s">
         <v>112</v>
       </c>
@@ -9928,7 +9928,7 @@
       <c r="R36" s="188"/>
       <c r="S36" s="188"/>
     </row>
-    <row r="37" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L37" s="181" t="s">
         <v>71</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="R37" s="75"/>
       <c r="S37" s="76"/>
     </row>
-    <row r="38" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L38" s="181" t="s">
         <v>72</v>
       </c>
@@ -9964,7 +9964,7 @@
       <c r="R38" s="75"/>
       <c r="S38" s="76"/>
     </row>
-    <row r="39" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L39" s="181" t="s">
         <v>73</v>
       </c>
@@ -9982,7 +9982,7 @@
       <c r="R39" s="75"/>
       <c r="S39" s="76"/>
     </row>
-    <row r="40" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L40" s="181" t="s">
         <v>74</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="R40" s="75"/>
       <c r="S40" s="76"/>
     </row>
-    <row r="41" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L41" s="181" t="s">
         <v>75</v>
       </c>
@@ -10018,7 +10018,7 @@
       <c r="R41" s="75"/>
       <c r="S41" s="76"/>
     </row>
-    <row r="42" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L42" s="181" t="s">
         <v>76</v>
       </c>
@@ -10034,7 +10034,7 @@
       <c r="R42" s="75"/>
       <c r="S42" s="76"/>
     </row>
-    <row r="43" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L43" s="187" t="s">
         <v>113</v>
       </c>
@@ -10052,7 +10052,7 @@
       <c r="R43" s="188"/>
       <c r="S43" s="188"/>
     </row>
-    <row r="44" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L44" s="190" t="s">
         <v>114</v>
       </c>
@@ -10070,11 +10070,11 @@
       <c r="R44" s="191"/>
       <c r="S44" s="191"/>
     </row>
-    <row r="45" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:19" x14ac:dyDescent="0.3">
       <c r="N45" s="170"/>
       <c r="P45" s="170"/>
     </row>
-    <row r="46" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:19" x14ac:dyDescent="0.3">
       <c r="N46" s="170"/>
       <c r="P46" s="170"/>
     </row>
@@ -10087,29 +10087,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F2A300-485C-4FBB-9E88-2B3C7B858F7A}">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView showGridLines="0" topLeftCell="A91" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
     <col min="2" max="2" width="51" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="229"/>
       <c r="C2" s="229"/>
       <c r="D2" s="229"/>
@@ -10122,7 +10122,7 @@
       <c r="K2" s="229"/>
       <c r="L2" s="229"/>
     </row>
-    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="233" t="s">
         <v>123</v>
       </c>
@@ -10140,7 +10140,7 @@
       <c r="J3" s="238"/>
       <c r="K3" s="239"/>
     </row>
-    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="240" t="s">
         <v>11</v>
       </c>
@@ -10158,7 +10158,7 @@
       <c r="J4" s="245"/>
       <c r="K4" s="246"/>
     </row>
-    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="247" t="s">
         <v>12</v>
       </c>
@@ -10176,7 +10176,7 @@
       <c r="J5" s="245"/>
       <c r="K5" s="246"/>
     </row>
-    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="261" t="s">
         <v>13</v>
       </c>
@@ -10193,7 +10193,7 @@
       <c r="J6" s="245"/>
       <c r="K6" s="246"/>
     </row>
-    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="247" t="s">
         <v>15</v>
       </c>
@@ -10211,7 +10211,7 @@
       <c r="J7" s="230"/>
       <c r="K7" s="230"/>
     </row>
-    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="247" t="s">
         <v>16</v>
       </c>
@@ -10229,7 +10229,7 @@
       <c r="J8" s="245"/>
       <c r="K8" s="246"/>
     </row>
-    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="247" t="s">
         <v>17</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="J9" s="245"/>
       <c r="K9" s="246"/>
     </row>
-    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="247" t="s">
         <v>18</v>
       </c>
@@ -10265,7 +10265,7 @@
       <c r="J10" s="245"/>
       <c r="K10" s="246"/>
     </row>
-    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="247" t="s">
         <v>19</v>
       </c>
@@ -10283,7 +10283,7 @@
       <c r="J11" s="245"/>
       <c r="K11" s="246"/>
     </row>
-    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="265" t="s">
         <v>20</v>
       </c>
@@ -10300,7 +10300,7 @@
       <c r="J12" s="230"/>
       <c r="K12" s="230"/>
     </row>
-    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="249" t="s">
         <v>21</v>
       </c>
@@ -10318,7 +10318,7 @@
       <c r="J13" s="230"/>
       <c r="K13" s="230"/>
     </row>
-    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B14" s="265" t="s">
         <v>22</v>
       </c>
@@ -10335,7 +10335,7 @@
       <c r="J14" s="230"/>
       <c r="K14" s="230"/>
     </row>
-    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="248" t="s">
         <v>23</v>
       </c>
@@ -10349,7 +10349,7 @@
       <c r="J15" s="230"/>
       <c r="K15" s="230"/>
     </row>
-    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="247" t="s">
         <v>24</v>
       </c>
@@ -10367,7 +10367,7 @@
       <c r="J16" s="245"/>
       <c r="K16" s="246"/>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="247" t="s">
         <v>25</v>
       </c>
@@ -10383,7 +10383,7 @@
       <c r="J17" s="245"/>
       <c r="K17" s="246"/>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="261" t="s">
         <v>26</v>
       </c>
@@ -10400,7 +10400,7 @@
       <c r="J18" s="245"/>
       <c r="K18" s="246"/>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="265" t="s">
         <v>27</v>
       </c>
@@ -10417,7 +10417,7 @@
       <c r="J19" s="245"/>
       <c r="K19" s="246"/>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="251"/>
       <c r="C20" s="230"/>
       <c r="D20" s="231"/>
@@ -10430,7 +10430,7 @@
       <c r="K20" s="230"/>
       <c r="L20" s="230"/>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="252"/>
       <c r="C21" s="253"/>
       <c r="D21" s="241"/>
@@ -10443,7 +10443,7 @@
       <c r="K21" s="245"/>
       <c r="L21" s="246"/>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="251"/>
       <c r="C22" s="230"/>
       <c r="D22" s="231"/>
@@ -10456,7 +10456,7 @@
       <c r="K22" s="245"/>
       <c r="L22" s="246"/>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="251"/>
       <c r="C23" s="230"/>
       <c r="D23" s="231"/>
@@ -10469,7 +10469,7 @@
       <c r="K23" s="230"/>
       <c r="L23" s="230"/>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="233" t="s">
         <v>124</v>
       </c>
@@ -10489,7 +10489,7 @@
       <c r="K24" s="230"/>
       <c r="L24" s="230"/>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="256" t="s">
         <v>41</v>
       </c>
@@ -10503,7 +10503,7 @@
       <c r="K25" s="230"/>
       <c r="L25" s="230"/>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="256" t="s">
         <v>42</v>
       </c>
@@ -10517,7 +10517,7 @@
       <c r="K26" s="245"/>
       <c r="L26" s="246"/>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
@@ -10540,7 +10540,7 @@
       <c r="K27" s="230"/>
       <c r="L27" s="230"/>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="270" t="s">
         <v>93</v>
       </c>
@@ -10563,7 +10563,7 @@
       <c r="K28" s="245"/>
       <c r="L28" s="246"/>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="270" t="s">
         <v>93</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="K29" s="230"/>
       <c r="L29" s="230"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="270" t="s">
         <v>92</v>
       </c>
@@ -10609,7 +10609,7 @@
       <c r="K30" s="230"/>
       <c r="L30" s="230"/>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="270" t="s">
         <v>92</v>
       </c>
@@ -10632,7 +10632,7 @@
       <c r="K31" s="245"/>
       <c r="L31" s="246"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="270" t="s">
         <v>92</v>
       </c>
@@ -10655,7 +10655,7 @@
       <c r="K32" s="245"/>
       <c r="L32" s="246"/>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="282" t="s">
         <v>49</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="K33" s="245"/>
       <c r="L33" s="246"/>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="255" t="s">
         <v>14</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="K34" s="245"/>
       <c r="L34" s="246"/>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="256" t="s">
         <v>50</v>
       </c>
@@ -10703,7 +10703,7 @@
       <c r="K35" s="230"/>
       <c r="L35" s="230"/>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="270" t="s">
         <v>92</v>
       </c>
@@ -10726,7 +10726,7 @@
       <c r="K36" s="230"/>
       <c r="L36" s="230"/>
     </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="270" t="s">
         <v>93</v>
       </c>
@@ -10745,7 +10745,7 @@
       <c r="G37" s="19"/>
       <c r="I37" s="19"/>
     </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="270"/>
       <c r="B38" s="255" t="s">
         <v>53</v>
@@ -10760,7 +10760,7 @@
       <c r="G38" s="19"/>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="270" t="s">
         <v>93</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>1240741209.072855</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="282" t="s">
         <v>55</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>12205756450.152855</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="282" t="s">
         <v>56</v>
@@ -10806,7 +10806,7 @@
         <v>37515549775.632858</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="255" t="s">
         <v>14</v>
       </c>
@@ -10814,7 +10814,7 @@
       <c r="D42" s="286"/>
       <c r="E42" s="286"/>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="256" t="s">
         <v>57</v>
       </c>
@@ -10822,7 +10822,7 @@
       <c r="D43" s="287"/>
       <c r="E43" s="286"/>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="256" t="s">
         <v>58</v>
       </c>
@@ -10830,7 +10830,7 @@
       <c r="D44" s="287"/>
       <c r="E44" s="286"/>
     </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="278" t="s">
         <v>92</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>2157079000</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>96</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>518309522.00999999</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="278" t="s">
         <v>92</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>4480219088.4399996</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="270" t="s">
         <v>92</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>275806899</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="270" t="s">
         <v>92</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>5079950517.1600008</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="282" t="s">
         <v>64</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>12511365026.610001</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="255" t="s">
         <v>14</v>
       </c>
@@ -10937,7 +10937,7 @@
       <c r="D51" s="287"/>
       <c r="E51" s="286"/>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="256" t="s">
         <v>65</v>
       </c>
@@ -10945,7 +10945,7 @@
       <c r="D52" s="287"/>
       <c r="E52" s="286"/>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>236690165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="270" t="s">
         <v>93</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>217884946.44</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="270" t="s">
         <v>93</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>1790011691.4200001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="270" t="s">
         <v>93</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>35114588</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="282" t="s">
         <v>68</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>2279701390.8600001</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="282" t="s">
         <v>69</v>
       </c>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="F58" s="19"/>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="255" t="s">
         <v>14</v>
       </c>
@@ -11048,7 +11048,7 @@
       <c r="D59" s="287"/>
       <c r="E59" s="286"/>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" s="256" t="s">
         <v>70</v>
       </c>
@@ -11056,7 +11056,7 @@
       <c r="D60" s="287"/>
       <c r="E60" s="286"/>
     </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>96</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>2060803967.3599999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>96</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>96</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>4234095263.4499998</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>3313032491.5100002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>96</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>385573649.13</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>96</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>10730977987.340004</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="282" t="s">
         <v>77</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>22724483358.790001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="282" t="s">
         <v>78</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>37515549776.260002</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D69" s="68">
         <f>+D68-D41</f>
         <v>1.649993896484375</v>
@@ -11195,7 +11195,7 @@
         <v>0.62714385986328125</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="233" t="s">
         <v>125</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="240" t="s">
         <v>11</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>90224924508.630005</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="247" t="s">
         <v>12</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>-70068461015.720001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="261" t="s">
         <v>13</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>20156463492.910004</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="247" t="s">
         <v>15</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>411173278.94</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="247" t="s">
         <v>16</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>-2930296270.71</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="247" t="s">
         <v>17</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>-1976551926.4200001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="247" t="s">
         <v>18</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>-701702582.53999996</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="247" t="s">
         <v>19</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>-629843016.67999995</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="265" t="s">
         <v>20</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>14329242975.500004</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="268" t="s">
         <v>126</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="D82" s="268"/>
       <c r="E82" s="268"/>
     </row>
-    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="247" t="s">
         <v>15</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>411173278.94</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="247" t="s">
         <v>18</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>-701702582.53999996</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="247" t="s">
         <v>19</v>
       </c>
@@ -11374,13 +11374,13 @@
         <v>-629843016.67999995</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="247"/>
       <c r="C86" s="258"/>
       <c r="D86" s="232"/>
       <c r="E86" s="232"/>
     </row>
-    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="265" t="s">
         <v>127</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>15249615295.780005</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>89</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>-5406237527.0446253</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="265" t="s">
         <v>88</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>9843377768.7353783</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>128</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>-187751613</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="265" t="s">
         <v>87</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>10031129381.735378</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="271" t="s">
         <v>129</v>
       </c>
@@ -11460,46 +11460,46 @@
         <v>-2132388221.1800003</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="255" t="s">
         <v>46</v>
       </c>
       <c r="D94" s="19">
-        <f>+-(D30-C30)</f>
+        <f t="shared" ref="D94:E96" si="0">+-(D30-C30)</f>
         <v>-6439385554.9499998</v>
       </c>
       <c r="E94" s="19">
-        <f>+-(E30-D30)</f>
+        <f t="shared" si="0"/>
         <v>-1462529540.3500004</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="255" t="s">
         <v>47</v>
       </c>
       <c r="D95" s="19">
-        <f>+-(D31-C31)</f>
+        <f t="shared" si="0"/>
         <v>-10564508470.16</v>
       </c>
       <c r="E95" s="19">
-        <f>+-(E31-D31)</f>
+        <f t="shared" si="0"/>
         <v>-301684680.82999992</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="255" t="s">
         <v>48</v>
       </c>
       <c r="D96" s="19">
-        <f>+-(D32-C32)</f>
+        <f t="shared" si="0"/>
         <v>-1201819992.9000001</v>
       </c>
       <c r="E96" s="19">
-        <f>+-(E32-D32)</f>
+        <f t="shared" si="0"/>
         <v>-368174000</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="271" t="s">
         <v>130</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>683103667.64468479</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="255" t="s">
         <v>59</v>
       </c>
@@ -11526,46 +11526,46 @@
         <v>212195000</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="273" t="s">
         <v>85</v>
       </c>
       <c r="D99" s="19">
-        <f>+(D47-C47)</f>
+        <f t="shared" ref="D99:E101" si="1">+(D47-C47)</f>
         <v>7725520943.9099998</v>
       </c>
       <c r="E99" s="19">
-        <f>+(E47-D47)</f>
+        <f t="shared" si="1"/>
         <v>-3245301861.5700006</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="255" t="s">
         <v>62</v>
       </c>
       <c r="D100" s="19">
-        <f>+(D48-C48)</f>
+        <f t="shared" si="1"/>
         <v>238563880.80000001</v>
       </c>
       <c r="E100" s="19">
-        <f>+(E48-D48)</f>
+        <f t="shared" si="1"/>
         <v>37243012</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="255" t="s">
         <v>63</v>
       </c>
       <c r="D101" s="19">
-        <f>+(D49-C49)</f>
+        <f t="shared" si="1"/>
         <v>1400982992.9453151</v>
       </c>
       <c r="E101" s="19">
-        <f>+(E49-D49)</f>
+        <f t="shared" si="1"/>
         <v>3678967517.2146854</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="274" t="s">
         <v>131</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>-1449284553.5353155</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="276" t="s">
         <v>132</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>8581844828.2000628</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>51</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>707401206.78000069</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="274" t="s">
         <v>115</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>-741883346.75531483</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="276" t="s">
         <v>116</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>9289246034.9800644</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="247" t="s">
         <v>15</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>411173278.94</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="247" t="s">
         <v>19</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>-629843016.67999995</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>133</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>77521991.163025379</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>134</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>1481685529</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="274" t="s">
         <v>117</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>44</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>-866953981.06000018</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>45</v>
       </c>
@@ -11729,85 +11729,85 @@
         <v>21725046</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D114" s="19">
-        <f>+-(D37-C37)</f>
+        <f t="shared" ref="D114:E116" si="2">+-(D37-C37)</f>
         <v>-1223029995.5</v>
       </c>
       <c r="E114" s="19">
-        <f>+-(E37-D37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D115" s="19">
-        <f>+-(D38-C38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E115" s="19">
-        <f>+-(E38-D38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D116" s="19">
-        <f>+-(D39-C39)</f>
+        <f t="shared" si="2"/>
         <v>-263856481.90000001</v>
       </c>
       <c r="E116" s="19">
-        <f>+-(E39-D39)</f>
+        <f t="shared" si="2"/>
         <v>-976884720.072855</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D117" s="19">
-        <f>+(D54-C54)</f>
+        <f t="shared" ref="D117:E119" si="3">+(D54-C54)</f>
         <v>452006317.44</v>
       </c>
       <c r="E117" s="19">
-        <f>+(E54-D54)</f>
+        <f t="shared" si="3"/>
         <v>-234121379</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D118" s="19">
-        <f>+(D55-C55)</f>
+        <f t="shared" si="3"/>
         <v>4282558733.21</v>
       </c>
       <c r="E118" s="19">
-        <f>+(E55-D55)</f>
+        <f t="shared" si="3"/>
         <v>-2492547041.79</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D119" s="19">
-        <f>+(D56-C56)</f>
+        <f t="shared" si="3"/>
         <v>539915389.89999998</v>
       </c>
       <c r="E119" s="19">
-        <f>+(E56-D56)</f>
+        <f t="shared" si="3"/>
         <v>-504800809</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="274" t="s">
         <v>118</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>-5053582884.9228554</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="276" t="s">
         <v>116</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>5576200932.4802341</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>18</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>-701702582.53999996</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>135</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>248765018.72159779</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>60</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>-1776933799.1600001</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>60</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>-1724574345.98</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="274" t="s">
         <v>119</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>-3954445708.9584022</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="276" t="s">
         <v>136</v>
       </c>
@@ -11915,72 +11915,72 @@
         <v>1621755223.521832</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D128" s="19">
-        <f>+(D61-C61)</f>
+        <f t="shared" ref="D128:E132" si="4">+(D61-C61)</f>
         <v>2060803958.3599999</v>
       </c>
       <c r="E128" s="19">
-        <f>+(E61-D61)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D129" s="19">
-        <f>+(D62-C62)</f>
+        <f t="shared" si="4"/>
         <v>1999999990.8</v>
       </c>
       <c r="E129" s="19">
-        <f>+(E62-D62)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D130" s="19">
-        <f>+(D63-C63)</f>
+        <f t="shared" si="4"/>
         <v>1774057616.6900001</v>
       </c>
       <c r="E130" s="19">
-        <f>+(E63-D63)</f>
+        <f t="shared" si="4"/>
         <v>2460037637.6599998</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D131" s="19">
-        <f>+(D64-C64)</f>
+        <f t="shared" si="4"/>
         <v>3313032482.5100002</v>
       </c>
       <c r="E131" s="19">
-        <f>+(E64-D64)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D132" s="19">
-        <f>+(D65-C65)</f>
+        <f t="shared" si="4"/>
         <v>120685673.13</v>
       </c>
       <c r="E132" s="19">
-        <f>+(E65-D65)</f>
+        <f t="shared" si="4"/>
         <v>264887967</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>76</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>-2724925607.7146826</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="274" t="s">
         <v>120</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>-3.054682731628418</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="276" t="s">
         <v>121</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>1621755220.4671493</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>137</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>755101448.57000005</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="276" t="s">
         <v>122</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>2376856669.0371494</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="290" t="s">
         <v>143</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>-1.022850513458252</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="290" t="s">
         <v>138</v>
       </c>
@@ -12079,7 +12079,7 @@
       <c r="G140" s="19"/>
       <c r="H140" s="269"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="290" t="s">
         <v>139</v>
       </c>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="F141" s="68"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="290" t="s">
         <v>140</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="290" t="s">
         <v>141</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="290" t="s">
         <v>142</v>
       </c>
@@ -12146,47 +12146,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18F736-EF57-4198-BD8F-628ED0767289}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="304">
+      <c r="B1" s="294">
         <v>0.18160000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="302">
+      <c r="B3" s="292">
         <f>'CF 2021-2022'!E91/'CF 2021-2022'!E4</f>
         <v>0.11117913854032542</v>
       </c>
-      <c r="F3" s="306" t="s">
+      <c r="F3" s="296" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="303">
+      <c r="B4" s="293">
         <f>(('CF 2021-2022'!E89/'CF 2021-2022'!E105)-'KPI''s'!B1)*'CF 2021-2022'!E105</f>
         <v>9978103784.5061436</v>
       </c>
@@ -12194,23 +12194,23 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="303">
+      <c r="B5" s="293">
         <f>(('CF 2021-2022'!E111/'CF 2021-2022'!E120)-'KPI''s'!B1)*'CF 2021-2022'!E120</f>
         <v>2258268434.325016</v>
       </c>
-      <c r="F5" s="306" t="s">
+      <c r="F5" s="296" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="305">
+      <c r="B6" s="295">
         <f>B4+B5</f>
         <v>12236372218.83116</v>
       </c>
@@ -12218,11 +12218,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="302">
+      <c r="B7" s="292">
         <f>B6/'CF 2021-2022'!E4</f>
         <v>0.13562075319509689</v>
       </c>
@@ -12230,19 +12230,19 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="302">
+      <c r="B8" s="292">
         <f>'CF 2021-2022'!E19/'CF 2021-2022'!E67</f>
         <v>0.47222098816997665</v>
       </c>
-      <c r="F8" s="306" t="s">
+      <c r="F8" s="296" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>170</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -12262,61 +12262,61 @@
         <f>'CF 2021-2022'!E89/('CF 2021-2022'!E105+'CF 2021-2022'!E120)</f>
         <v>-1.6984617587677791</v>
       </c>
-      <c r="F10" s="306" t="s">
+      <c r="F10" s="296" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="306" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="296" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="306" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="296" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>168</v>
       </c>
@@ -12337,88 +12337,88 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="143" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="144" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="145" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="143" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="144" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="145" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="67" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="68" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="69" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="10.6640625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16" width="11.44140625" style="1"/>
+    <col min="17" max="17" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="294" t="s">
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294"/>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="294" t="s">
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="294" t="s">
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="299" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-    </row>
-    <row r="6" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="294" t="s">
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+    </row>
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="299" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="294"/>
-      <c r="D6" s="294"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="295" t="s">
+      <c r="C6" s="299"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B7" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-    </row>
-    <row r="8" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B8" s="146"/>
       <c r="C8" s="146" t="s">
         <v>5</v>
@@ -12442,7 +12442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="63" t="s">
         <v>41</v>
       </c>
@@ -12451,7 +12451,7 @@
       <c r="E9" s="65"/>
       <c r="F9" s="66"/>
     </row>
-    <row r="10" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
         <v>42</v>
       </c>
@@ -12460,7 +12460,7 @@
       <c r="E10" s="65"/>
       <c r="F10" s="66"/>
     </row>
-    <row r="11" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="70" t="s">
         <v>43</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="211" t="s">
         <v>44</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>-866953981.06000018</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="213" t="s">
         <v>45</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>21725046</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="211" t="s">
         <v>46</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>-1462529540.3500004</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="171" t="s">
         <v>94</v>
       </c>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="171" t="s">
         <v>95</v>
       </c>
@@ -12643,7 +12643,7 @@
       </c>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="211" t="s">
         <v>47</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>-301684680.82999992</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="211" t="s">
         <v>48</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>-368174000</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="63" t="s">
         <v>49</v>
       </c>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
         <v>14</v>
       </c>
@@ -12759,7 +12759,7 @@
       <c r="I20" s="86"/>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="63" t="s">
         <v>50</v>
       </c>
@@ -12772,7 +12772,7 @@
       <c r="I21" s="86"/>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="211" t="s">
         <v>51</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>10637</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="211" t="s">
         <v>52</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="70" t="s">
         <v>53</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="211" t="s">
         <v>48</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>-1155</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="63" t="s">
         <v>55</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="2:17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="63" t="s">
         <v>56</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>-746001231</v>
       </c>
     </row>
-    <row r="28" spans="2:17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="70" t="s">
         <v>14</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>9742</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="63" t="s">
         <v>57</v>
       </c>
@@ -13027,7 +13027,7 @@
       <c r="H29" s="75"/>
       <c r="I29" s="86"/>
     </row>
-    <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="63" t="s">
         <v>58</v>
       </c>
@@ -13039,7 +13039,7 @@
       <c r="H30" s="75"/>
       <c r="I30" s="86"/>
     </row>
-    <row r="31" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="214" t="s">
         <v>59</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>212195000</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="214" t="s">
         <v>60</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>-1776933799.1600001</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="212" t="s">
         <v>85</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>-3245301861.5700006</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="211" t="s">
         <v>62</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>37243012</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="211" t="s">
         <v>63</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>3678967517.2146854</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="63" t="s">
         <v>64</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>-8.0397974362172664E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="70" t="s">
         <v>14</v>
       </c>
@@ -13267,7 +13267,7 @@
       <c r="H37" s="75"/>
       <c r="I37" s="86"/>
     </row>
-    <row r="38" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="63" t="s">
         <v>65</v>
       </c>
@@ -13279,7 +13279,7 @@
       <c r="H38" s="75"/>
       <c r="I38" s="86"/>
     </row>
-    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="211" t="s">
         <v>60</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>-1724574345.98</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="211" t="s">
         <v>66</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>-234121379</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="211" t="s">
         <v>67</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>-2492547041.79</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="211" t="s">
         <v>63</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>-504800809</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="63" t="s">
         <v>68</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>-0.68493895219171108</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="63" t="s">
         <v>69</v>
       </c>
@@ -13484,7 +13484,7 @@
       <c r="J44" s="19"/>
       <c r="K44" s="68"/>
     </row>
-    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="70" t="s">
         <v>14</v>
       </c>
@@ -13496,7 +13496,7 @@
       <c r="H45" s="75"/>
       <c r="I45" s="86"/>
     </row>
-    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="63" t="s">
         <v>70</v>
       </c>
@@ -13508,7 +13508,7 @@
       <c r="H46" s="75"/>
       <c r="I46" s="86"/>
     </row>
-    <row r="47" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="70" t="s">
         <v>71</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="70" t="s">
         <v>72</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="70" t="s">
         <v>73</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>2460037637.6599998</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="70" t="s">
         <v>74</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="70" t="s">
         <v>75</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>264887967</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="70" t="s">
         <v>76</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>8006052379.6253214</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="63" t="s">
         <v>77</v>
       </c>
@@ -13760,7 +13760,7 @@
       <c r="M53" s="208"/>
       <c r="N53" s="208"/>
     </row>
-    <row r="54" spans="2:14" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="63" t="s">
         <v>78</v>
       </c>
@@ -13792,7 +13792,7 @@
       <c r="M54" s="208"/>
       <c r="N54" s="208"/>
     </row>
-    <row r="55" spans="2:14" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="51"/>
       <c r="C55" s="101"/>
       <c r="D55" s="210">
@@ -13809,31 +13809,31 @@
       <c r="M55" s="208"/>
       <c r="N55" s="208"/>
     </row>
-    <row r="56" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B56" s="296" t="s">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="301" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="296"/>
-      <c r="D56" s="296"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
       <c r="E56" s="105"/>
       <c r="F56" s="106"/>
       <c r="K56" s="198"/>
     </row>
-    <row r="57" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
       <c r="D57" s="109"/>
       <c r="E57" s="110"/>
       <c r="F57" s="111"/>
     </row>
-    <row r="58" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="112"/>
       <c r="C58" s="113"/>
       <c r="D58" s="114"/>
       <c r="E58" s="115"/>
       <c r="F58" s="116"/>
     </row>
-    <row r="59" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="117"/>
       <c r="C59" s="118"/>
       <c r="D59" s="119"/>
@@ -13841,45 +13841,45 @@
       <c r="F59" s="121"/>
       <c r="K59" s="68"/>
     </row>
-    <row r="60" spans="2:14" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="151"/>
       <c r="C60" s="123"/>
-      <c r="D60" s="299"/>
-      <c r="E60" s="299"/>
-      <c r="F60" s="299"/>
-      <c r="G60" s="299"/>
-      <c r="H60" s="299"/>
-      <c r="I60" s="299"/>
-    </row>
-    <row r="61" spans="2:14" s="47" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="304"/>
+      <c r="E60" s="304"/>
+      <c r="F60" s="304"/>
+      <c r="G60" s="304"/>
+      <c r="H60" s="304"/>
+      <c r="I60" s="304"/>
+    </row>
+    <row r="61" spans="2:14" s="47" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="125" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="126"/>
-      <c r="D61" s="293" t="s">
+      <c r="D61" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="293"/>
-      <c r="F61" s="293"/>
-      <c r="G61" s="293" t="s">
+      <c r="E61" s="298"/>
+      <c r="F61" s="298"/>
+      <c r="G61" s="298" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="293"/>
-      <c r="I61" s="293"/>
-    </row>
-    <row r="62" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H61" s="298"/>
+      <c r="I61" s="298"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="50"/>
       <c r="C62" s="127"/>
-      <c r="D62" s="300"/>
-      <c r="E62" s="300"/>
-      <c r="F62" s="300"/>
-      <c r="G62" s="301" t="s">
+      <c r="D62" s="305"/>
+      <c r="E62" s="305"/>
+      <c r="F62" s="305"/>
+      <c r="G62" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="301"/>
-      <c r="I62" s="301"/>
-    </row>
-    <row r="63" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="306"/>
+      <c r="I62" s="306"/>
+    </row>
+    <row r="63" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="50"/>
       <c r="C63" s="127"/>
       <c r="D63" s="128"/>
@@ -13891,26 +13891,26 @@
       <c r="H63" s="131"/>
       <c r="I63" s="132"/>
     </row>
-    <row r="64" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="50"/>
       <c r="C64" s="127"/>
       <c r="D64" s="128"/>
       <c r="E64" s="50"/>
       <c r="F64" s="133"/>
     </row>
-    <row r="65" spans="3:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="108"/>
       <c r="D65" s="134"/>
       <c r="E65" s="135"/>
       <c r="F65" s="136"/>
     </row>
-    <row r="66" spans="3:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="113"/>
       <c r="D66" s="137"/>
       <c r="E66" s="138"/>
       <c r="F66" s="139"/>
     </row>
-    <row r="67" spans="3:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="118"/>
       <c r="D67" s="140"/>
       <c r="E67" s="141"/>
@@ -13947,99 +13947,99 @@
   <dimension ref="B1:L46"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A23" zoomScale="97" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="294" t="s">
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294"/>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="294" t="s">
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+    </row>
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="294" t="s">
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-      <c r="J5" s="294"/>
-    </row>
-    <row r="6" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="294" t="str">
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+    </row>
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="299" t="str">
         <f>+'[20]ESF '!B6:I6</f>
         <v>A 31 de Diciembre 2022 - 2021</v>
       </c>
-      <c r="C6" s="294"/>
-      <c r="D6" s="294"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-      <c r="J6" s="294"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="295" t="s">
+      <c r="C6" s="299"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B7" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="295"/>
-    </row>
-    <row r="8" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="152" t="s">
         <v>4</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="224" t="s">
         <v>11</v>
       </c>
@@ -14098,7 +14098,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="225" t="s">
         <v>12</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>0.35014027575017348</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="226" t="s">
         <v>13</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>1.4713032835849842</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="225" t="s">
         <v>14</v>
       </c>
@@ -14171,7 +14171,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="225" t="s">
         <v>15</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>-0.33868135197209726</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="225" t="s">
         <v>16</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>0.50302984462879974</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="225" t="s">
         <v>17</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>15249615295.780005</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="225" t="s">
         <v>18</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>-0.15366771655362366</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="225" t="s">
         <v>19</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>1.0765552926806139</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="225"/>
       <c r="C19" s="21"/>
       <c r="D19" s="27">
@@ -14344,7 +14344,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="2:12" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" s="33" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B20" s="227" t="s">
         <v>20</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>14329242975.500004</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="226"/>
       <c r="C21" s="21"/>
       <c r="D21" s="27"/>
@@ -14390,7 +14390,7 @@
       <c r="J21" s="28"/>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="2:12" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="228" t="s">
         <v>21</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>2.6259901207639835</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="225"/>
       <c r="C23" s="21"/>
       <c r="D23" s="27"/>
@@ -14432,7 +14432,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="2:12" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" s="33" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B24" s="227" t="s">
         <v>22</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>2.4917752056978157</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="225" t="s">
         <v>14</v>
       </c>
@@ -14474,7 +14474,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
-    <row r="26" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B26" s="226" t="s">
         <v>23</v>
       </c>
@@ -14487,7 +14487,7 @@
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
     </row>
-    <row r="27" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="225" t="s">
         <v>24</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="225" t="s">
         <v>25</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="226" t="s">
         <v>26</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="29"/>
@@ -14584,7 +14584,7 @@
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
     </row>
-    <row r="31" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>27</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>2.9380810826390835</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="29"/>
@@ -14624,29 +14624,29 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="296" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="301" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="296"/>
-      <c r="D33" s="296"/>
-    </row>
-    <row r="34" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C33" s="301"/>
+      <c r="D33" s="301"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="44"/>
     </row>
-    <row r="35" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="44"/>
     </row>
-    <row r="36" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
     </row>
-    <row r="37" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="67">
@@ -14658,43 +14658,43 @@
         <v>0.34593345598183695</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
     </row>
-    <row r="39" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
     </row>
-    <row r="40" spans="2:10" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="45"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="297"/>
-      <c r="G40" s="297"/>
-      <c r="H40" s="297"/>
-      <c r="I40" s="297"/>
-      <c r="J40" s="297"/>
+      <c r="D40" s="302"/>
+      <c r="E40" s="302"/>
+      <c r="F40" s="302"/>
+      <c r="G40" s="302"/>
+      <c r="H40" s="302"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="49"/>
-      <c r="D41" s="298" t="s">
+      <c r="D41" s="303" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="298"/>
-      <c r="F41" s="298"/>
-      <c r="G41" s="298"/>
-      <c r="H41" s="298" t="s">
+      <c r="E41" s="303"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="303" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="298"/>
-      <c r="J41" s="298"/>
-    </row>
-    <row r="42" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="303"/>
+      <c r="J41" s="303"/>
+    </row>
+    <row r="42" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="51"/>
       <c r="C42" s="52"/>
       <c r="H42" s="53" t="s">
